--- a/IEEE_14Bus_Cyprus_test.xlsx
+++ b/IEEE_14Bus_Cyprus_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\Git\Simplex-Power-Systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A796A-34AE-4D10-B867-D5F3D6FB7077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8181D1-88F4-4FF6-85DC-35070FF0BD1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1476,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:AW17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -3068,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3168,7 +3168,7 @@
         <v>41</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/IEEE_14Bus_Cyprus_test.xlsx
+++ b/IEEE_14Bus_Cyprus_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8181D1-88F4-4FF6-85DC-35070FF0BD1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EA831B-BD31-4A33-B17B-5B2E6CEF19AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:AW17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2515,8 +2515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2725,8 +2725,8 @@
       <c r="D12">
         <v>4.2110000000000002E-2</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2748,8 +2748,8 @@
       <c r="D13">
         <v>0.20912</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2771,8 +2771,8 @@
       <c r="D14">
         <v>0.55618000000000001</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2794,8 +2794,8 @@
       <c r="D15">
         <v>0.25202000000000002</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2817,8 +2817,8 @@
       <c r="D16">
         <v>0.19889999999999999</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2840,8 +2840,8 @@
       <c r="D17">
         <v>0.25580999999999998</v>
       </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="E17" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2863,8 +2863,8 @@
       <c r="D18">
         <v>0.13027</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2886,8 +2886,8 @@
       <c r="D19">
         <v>0.17615</v>
       </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="E19" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2909,8 +2909,8 @@
       <c r="D20">
         <v>0.11001</v>
       </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="E20" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2932,8 +2932,8 @@
       <c r="D21">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2955,8 +2955,8 @@
       <c r="D22">
         <v>0.27038000000000001</v>
       </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2978,8 +2978,8 @@
       <c r="D23">
         <v>0.19206999999999999</v>
       </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="E23" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3001,8 +3001,8 @@
       <c r="D24">
         <v>0.19988</v>
       </c>
-      <c r="E24">
-        <v>0</v>
+      <c r="E24" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3024,8 +3024,8 @@
       <c r="D25">
         <v>0.34802</v>
       </c>
-      <c r="E25">
-        <v>0</v>
+      <c r="E25" s="1">
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3068,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/IEEE_14Bus_Cyprus_test.xlsx
+++ b/IEEE_14Bus_Cyprus_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EA831B-BD31-4A33-B17B-5B2E6CEF19AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E104A6-7374-4739-8126-49AFAEA8A2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -2515,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12:E25"/>
     </sheetView>
   </sheetViews>
@@ -3068,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3168,7 +3168,7 @@
         <v>41</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/IEEE_14Bus_Cyprus_test.xlsx
+++ b/IEEE_14Bus_Cyprus_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E104A6-7374-4739-8126-49AFAEA8A2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A07B13-591A-43F0-8F68-FB57D12060F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -528,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -563,6 +564,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +850,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:L10"/>
+      <selection activeCell="H16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1476,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:AW17"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2105,6 +2109,30 @@
       <c r="AG6">
         <v>0.93879999999999997</v>
       </c>
+      <c r="AH6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="7" spans="1:49">
       <c r="A7">
@@ -2229,6 +2257,14 @@
       <c r="AG9">
         <v>0.93859999999999999</v>
       </c>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
     </row>
     <row r="10" spans="1:49">
       <c r="A10">
@@ -2341,6 +2377,14 @@
       <c r="AG11">
         <v>0.93859999999999999</v>
       </c>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
     </row>
     <row r="12" spans="1:49">
       <c r="A12">
@@ -2513,15 +2557,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2558,10 +2603,10 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -2581,11 +2626,11 @@
       <c r="D6">
         <v>5.917E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="24">
         <f>0.0528</f>
         <v>5.28E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="24">
         <v>0</v>
       </c>
       <c r="G6">
@@ -2605,11 +2650,11 @@
       <c r="D7">
         <v>0.22303999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="24">
         <f>0.0492</f>
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="24">
         <v>0</v>
       </c>
       <c r="G7">
@@ -2629,11 +2674,11 @@
       <c r="D8">
         <v>0.19797000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="24">
         <f>0.0438</f>
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="24">
         <v>0</v>
       </c>
       <c r="G8">
@@ -2653,11 +2698,11 @@
       <c r="D9">
         <v>0.17632</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="24">
         <f>0.034</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="24">
         <v>0</v>
       </c>
       <c r="G9">
@@ -2677,11 +2722,11 @@
       <c r="D10">
         <v>0.17388000000000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="24">
         <f>0.0346</f>
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="24">
         <v>0</v>
       </c>
       <c r="G10">
@@ -2701,11 +2746,11 @@
       <c r="D11">
         <v>0.17102999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="24">
         <f>0.0128</f>
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="24">
         <v>0</v>
       </c>
       <c r="G11">
@@ -2728,7 +2773,7 @@
       <c r="E12" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="24">
         <v>0</v>
       </c>
       <c r="G12">
@@ -2751,7 +2796,7 @@
       <c r="E13" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="24">
         <v>0</v>
       </c>
       <c r="G13">
@@ -2774,7 +2819,7 @@
       <c r="E14" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="24">
         <v>0</v>
       </c>
       <c r="G14">
@@ -2797,7 +2842,7 @@
       <c r="E15" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="24">
         <v>0</v>
       </c>
       <c r="G15">
@@ -2820,7 +2865,7 @@
       <c r="E16" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="24">
         <v>0</v>
       </c>
       <c r="G16">
@@ -2843,7 +2888,7 @@
       <c r="E17" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="24">
         <v>0</v>
       </c>
       <c r="G17">
@@ -2866,7 +2911,7 @@
       <c r="E18" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="24">
         <v>0</v>
       </c>
       <c r="G18">
@@ -2889,7 +2934,7 @@
       <c r="E19" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="24">
         <v>0</v>
       </c>
       <c r="G19">
@@ -2912,7 +2957,7 @@
       <c r="E20" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="24">
         <v>0</v>
       </c>
       <c r="G20">
@@ -2935,7 +2980,7 @@
       <c r="E21" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="24">
         <v>0</v>
       </c>
       <c r="G21">
@@ -2958,7 +3003,7 @@
       <c r="E22" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="24">
         <v>0</v>
       </c>
       <c r="G22">
@@ -2981,7 +3026,7 @@
       <c r="E23" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="24">
         <v>0</v>
       </c>
       <c r="G23">
@@ -3004,7 +3049,7 @@
       <c r="E24" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="24">
         <v>0</v>
       </c>
       <c r="G24">
@@ -3027,7 +3072,7 @@
       <c r="E25" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="24">
         <v>0</v>
       </c>
       <c r="G25">
@@ -3047,15 +3092,19 @@
       <c r="D26" t="s">
         <v>44</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="24">
         <v>0.19</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3068,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3168,7 +3217,7 @@
         <v>41</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
